--- a/Raw Data/NaburnPeakAreas.xlsx
+++ b/Raw Data/NaburnPeakAreas.xlsx
@@ -1,17 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91b185749148c7f6/Documents/GitHub/mass-spec-2021/Raw Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_946CE21C6937C7247DB859B5CFF2E0275C782D8F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6841F7BA-9681-493E-9108-8DE8C978B2E3}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="NaburnPeakAreas.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="NaburnPeakAreas.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -116,20 +139,36 @@
   </si>
   <si>
     <t>Xibornol</t>
+  </si>
+  <si>
+    <t>Tetracycline</t>
+  </si>
+  <si>
+    <t>sum of the peak areas with electrospray ionisation gives a proxy for which we can compare, grouped by class for compounds with similar physicochemical properties</t>
+  </si>
+  <si>
+    <t>trimethoprim ionises better than tetracyclines for example</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doesn't allow for summation, as there weren't internal standards </t>
+  </si>
+  <si>
+    <t>relative comparisons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -140,36 +179,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -359,20 +405,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:J30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,135 +455,135 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>1.20334399E7</v>
+        <v>12033439.9</v>
       </c>
       <c r="C2" s="1">
-        <v>1.327606412E7</v>
+        <v>13276064.119999999</v>
       </c>
       <c r="D2" s="1">
-        <v>8381610.723</v>
+        <v>8381610.7230000002</v>
       </c>
       <c r="E2" s="1">
         <v>4270131.125</v>
       </c>
       <c r="F2" s="1">
-        <v>5946048.395</v>
+        <v>5946048.3949999996</v>
       </c>
       <c r="G2" s="1">
-        <v>6522501.484</v>
+        <v>6522501.4840000002</v>
       </c>
       <c r="H2" s="1">
-        <v>6235503.549</v>
+        <v>6235503.5489999996</v>
       </c>
       <c r="I2" s="1">
         <v>3440720.72</v>
       </c>
       <c r="J2" s="1">
-        <v>1443383.653</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1443383.6529999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>5.284719442E7</v>
+        <v>52847194.420000002</v>
       </c>
       <c r="C3" s="1">
-        <v>5.005327284E7</v>
+        <v>50053272.840000004</v>
       </c>
       <c r="D3" s="1">
-        <v>1.036338437E7</v>
+        <v>10363384.369999999</v>
       </c>
       <c r="E3" s="1">
-        <v>7.619749408E7</v>
+        <v>76197494.079999998</v>
       </c>
       <c r="F3" s="1">
-        <v>9.594584281E7</v>
+        <v>95945842.810000002</v>
       </c>
       <c r="G3" s="1">
-        <v>1.369909524E7</v>
+        <v>13699095.24</v>
       </c>
       <c r="H3" s="1">
-        <v>5992584.84</v>
+        <v>5992584.8399999999</v>
       </c>
       <c r="I3" s="1">
-        <v>4601824.868</v>
+        <v>4601824.8679999998</v>
       </c>
       <c r="J3" s="1">
         <v>1882821.091</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>7106077.311</v>
+        <v>7106077.3109999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1.623416226E7</v>
+        <v>16234162.26</v>
       </c>
       <c r="D4" s="1">
-        <v>2.016135335E7</v>
+        <v>20161353.350000001</v>
       </c>
       <c r="E4" s="1">
-        <v>2.093937915E7</v>
+        <v>20939379.149999999</v>
       </c>
       <c r="F4" s="1">
-        <v>2.505985661E7</v>
+        <v>25059856.609999999</v>
       </c>
       <c r="G4" s="1">
-        <v>3.661716283E7</v>
+        <v>36617162.829999998</v>
       </c>
       <c r="H4" s="1">
-        <v>2.889629393E7</v>
+        <v>28896293.93</v>
       </c>
       <c r="I4" s="1">
-        <v>1.153219921E7</v>
+        <v>11532199.210000001</v>
       </c>
       <c r="J4" s="1">
         <v>1851937.263</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>3.458931646E7</v>
+        <v>34589316.460000001</v>
       </c>
       <c r="C5" s="1">
-        <v>3.129749499E7</v>
+        <v>31297494.989999998</v>
       </c>
       <c r="D5" s="1">
-        <v>1.853588358E7</v>
+        <v>18535883.579999998</v>
       </c>
       <c r="E5" s="1">
-        <v>9788640.769</v>
+        <v>9788640.7689999994</v>
       </c>
       <c r="F5" s="1">
-        <v>1.082790341E7</v>
+        <v>10827903.41</v>
       </c>
       <c r="G5" s="1">
-        <v>2.435301225E7</v>
+        <v>24353012.25</v>
       </c>
       <c r="H5" s="1">
-        <v>3.0491582E7</v>
+        <v>30491582</v>
       </c>
       <c r="I5" s="1">
-        <v>2.051183912E7</v>
+        <v>20511839.120000001</v>
       </c>
       <c r="J5" s="1">
         <v>106455.5076</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
@@ -540,446 +591,446 @@
         <v>2636371.645</v>
       </c>
       <c r="D6" s="1">
-        <v>917306.094</v>
+        <v>917306.09400000004</v>
       </c>
       <c r="E6" s="1">
-        <v>1294038.944</v>
+        <v>1294038.9439999999</v>
       </c>
       <c r="F6" s="1">
-        <v>902299.4537</v>
+        <v>902299.45369999995</v>
       </c>
       <c r="I6" s="1">
         <v>1046469.388</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>1.401246867E7</v>
+        <v>14012468.67</v>
       </c>
       <c r="C7" s="1">
-        <v>5196352.748</v>
+        <v>5196352.7479999997</v>
       </c>
       <c r="D7" s="1">
         <v>7962663.608</v>
       </c>
       <c r="E7" s="1">
-        <v>6701801.361</v>
+        <v>6701801.3609999996</v>
       </c>
       <c r="F7" s="1">
-        <v>6001832.336</v>
+        <v>6001832.3360000001</v>
       </c>
       <c r="G7" s="1">
-        <v>8425708.153</v>
+        <v>8425708.1530000009</v>
       </c>
       <c r="H7" s="1">
-        <v>7868282.652</v>
+        <v>7868282.6519999998</v>
       </c>
       <c r="I7" s="1">
-        <v>1.076591509E7</v>
+        <v>10765915.09</v>
       </c>
       <c r="J7" s="1">
-        <v>75995.99075</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>75995.990749999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>2.032876787E7</v>
+        <v>20328767.870000001</v>
       </c>
       <c r="C8" s="1">
-        <v>2691296.242</v>
+        <v>2691296.2420000001</v>
       </c>
       <c r="D8" s="1">
-        <v>5241862.507</v>
+        <v>5241862.5070000002</v>
       </c>
       <c r="E8" s="1">
-        <v>5.173404843E7</v>
+        <v>51734048.43</v>
       </c>
       <c r="F8" s="1">
-        <v>3.491850097E7</v>
+        <v>34918500.969999999</v>
       </c>
       <c r="G8" s="1">
-        <v>1.179446841E7</v>
+        <v>11794468.41</v>
       </c>
       <c r="H8" s="1">
-        <v>1.291171889E7</v>
+        <v>12911718.890000001</v>
       </c>
       <c r="I8" s="1">
-        <v>8562654.098</v>
+        <v>8562654.0979999993</v>
       </c>
       <c r="J8" s="1">
-        <v>218813.5112</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>218813.51120000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>1328893.866</v>
+        <v>1328893.8659999999</v>
       </c>
       <c r="C9" s="1">
-        <v>154035.7949</v>
+        <v>154035.79490000001</v>
       </c>
       <c r="D9" s="1">
-        <v>3487400.141</v>
+        <v>3487400.1409999998</v>
       </c>
       <c r="E9" s="1">
-        <v>421687.0185</v>
+        <v>421687.01850000001</v>
       </c>
       <c r="F9" s="1">
-        <v>427010.3013</v>
+        <v>427010.30129999999</v>
       </c>
       <c r="G9" s="1">
-        <v>4086684.131</v>
+        <v>4086684.1310000001</v>
       </c>
       <c r="H9" s="1">
-        <v>3275694.687</v>
+        <v>3275694.6869999999</v>
       </c>
       <c r="I9" s="1">
         <v>1918864.412</v>
       </c>
       <c r="J9" s="1">
-        <v>82830.24184</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>82830.241840000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>9891994.654</v>
+        <v>9891994.6539999992</v>
       </c>
       <c r="C10" s="1">
-        <v>1.536561686E7</v>
+        <v>15365616.859999999</v>
       </c>
       <c r="D10" s="1">
-        <v>1.358567777E7</v>
+        <v>13585677.77</v>
       </c>
       <c r="E10" s="1">
-        <v>1.219757589E7</v>
+        <v>12197575.890000001</v>
       </c>
       <c r="F10" s="1">
-        <v>9730687.405</v>
+        <v>9730687.4049999993</v>
       </c>
       <c r="G10" s="1">
-        <v>1.247701615E7</v>
+        <v>12477016.15</v>
       </c>
       <c r="H10" s="1">
-        <v>9091039.139</v>
+        <v>9091039.1390000004</v>
       </c>
       <c r="I10" s="1">
-        <v>1.473385512E7</v>
+        <v>14733855.119999999</v>
       </c>
       <c r="J10" s="1">
-        <v>883760.857</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>883760.85699999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>8.657364322E7</v>
+        <v>86573643.219999999</v>
       </c>
       <c r="C11" s="1">
-        <v>2.584588934E7</v>
+        <v>25845889.34</v>
       </c>
       <c r="D11" s="1">
-        <v>4.311960261E7</v>
+        <v>43119602.609999999</v>
       </c>
       <c r="E11" s="1">
-        <v>6.020607852E7</v>
+        <v>60206078.520000003</v>
       </c>
       <c r="F11" s="1">
-        <v>6.787628197E7</v>
+        <v>67876281.969999999</v>
       </c>
       <c r="G11" s="1">
-        <v>3.557108431E7</v>
+        <v>35571084.310000002</v>
       </c>
       <c r="H11" s="1">
-        <v>4.535294804E7</v>
+        <v>45352948.039999999</v>
       </c>
       <c r="I11" s="1">
-        <v>4.890845958E7</v>
+        <v>48908459.579999998</v>
       </c>
       <c r="J11" s="1">
-        <v>194898.9092</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>194898.90919999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>2686322.564</v>
+        <v>2686322.5639999998</v>
       </c>
       <c r="C12" s="1">
-        <v>1.007834022E7</v>
+        <v>10078340.220000001</v>
       </c>
       <c r="D12" s="1">
-        <v>684063.6072</v>
+        <v>684063.60719999997</v>
       </c>
       <c r="E12" s="1">
-        <v>682030.5856</v>
+        <v>682030.58559999999</v>
       </c>
       <c r="F12" s="1">
-        <v>578827.9565</v>
+        <v>578827.95649999997</v>
       </c>
       <c r="G12" s="1">
-        <v>1289907.336</v>
+        <v>1289907.3359999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1366342.373</v>
+        <v>1366342.3729999999</v>
       </c>
       <c r="I12" s="1">
-        <v>2000469.411</v>
+        <v>2000469.4110000001</v>
       </c>
       <c r="J12" s="1">
-        <v>92005.84999</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>92005.849990000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>5.678449714E7</v>
+        <v>56784497.140000001</v>
       </c>
       <c r="C13" s="1">
-        <v>314912.0207</v>
+        <v>314912.02069999999</v>
       </c>
       <c r="D13" s="1">
-        <v>113476.6199</v>
+        <v>113476.61990000001</v>
       </c>
       <c r="E13" s="1">
-        <v>71623.91078</v>
+        <v>71623.910780000006</v>
       </c>
       <c r="G13" s="1">
-        <v>26792.76111</v>
+        <v>26792.761109999999</v>
       </c>
       <c r="J13" s="1">
-        <v>52013.64585</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>52013.645850000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>2.456207645E7</v>
+        <v>24562076.449999999</v>
       </c>
       <c r="C14" s="1">
-        <v>642612.9723</v>
+        <v>642612.97230000002</v>
       </c>
       <c r="D14" s="1">
-        <v>729255.4135</v>
+        <v>729255.41350000002</v>
       </c>
       <c r="E14" s="1">
-        <v>748185.0063</v>
+        <v>748185.00630000001</v>
       </c>
       <c r="F14" s="1">
         <v>860970.5834</v>
       </c>
       <c r="G14" s="1">
-        <v>767729.7991</v>
+        <v>767729.79909999995</v>
       </c>
       <c r="H14" s="1">
-        <v>741711.5733</v>
+        <v>741711.57330000005</v>
       </c>
       <c r="I14" s="1">
-        <v>1433084.647</v>
+        <v>1433084.6470000001</v>
       </c>
       <c r="J14" s="1">
-        <v>511297.1337</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>511297.13370000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="1">
-        <v>3282518.157</v>
+        <v>3282518.1570000001</v>
       </c>
       <c r="C15" s="1">
-        <v>9017722.131</v>
+        <v>9017722.1309999991</v>
       </c>
       <c r="D15" s="1">
         <v>1140513.963</v>
       </c>
       <c r="E15" s="1">
-        <v>5189561.856</v>
+        <v>5189561.8559999997</v>
       </c>
       <c r="F15" s="1">
-        <v>6886113.115</v>
+        <v>6886113.1150000002</v>
       </c>
       <c r="G15" s="1">
-        <v>3558354.491</v>
+        <v>3558354.4909999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1.033052015E7</v>
+        <v>10330520.15</v>
       </c>
       <c r="I15" s="1">
         <v>2844093.21</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1">
-        <v>1.028507888E7</v>
+        <v>10285078.880000001</v>
       </c>
       <c r="C16" s="1">
-        <v>469125.9247</v>
+        <v>469125.92469999997</v>
       </c>
       <c r="D16" s="1">
         <v>453682.9841</v>
       </c>
       <c r="E16" s="1">
-        <v>444979.9598</v>
+        <v>444979.95980000001</v>
       </c>
       <c r="F16" s="1">
         <v>435636.9167</v>
       </c>
       <c r="G16" s="1">
-        <v>530926.0656</v>
+        <v>530926.06559999997</v>
       </c>
       <c r="H16" s="1">
-        <v>458135.832</v>
+        <v>458135.83199999999</v>
       </c>
       <c r="I16" s="1">
-        <v>544665.203</v>
+        <v>544665.20299999998</v>
       </c>
       <c r="J16" s="1">
-        <v>91594.89553</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>91594.895529999994</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="1">
-        <v>1.36723206E7</v>
+        <v>13672320.6</v>
       </c>
       <c r="C17" s="1">
-        <v>4118310.033</v>
+        <v>4118310.0329999998</v>
       </c>
       <c r="D17" s="1">
-        <v>8982034.051</v>
+        <v>8982034.0510000009</v>
       </c>
       <c r="E17" s="1">
-        <v>1.705094169E7</v>
+        <v>17050941.690000001</v>
       </c>
       <c r="F17" s="1">
-        <v>1.257258944E7</v>
+        <v>12572589.439999999</v>
       </c>
       <c r="G17" s="1">
-        <v>1.08567567E7</v>
+        <v>10856756.699999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1.201497347E7</v>
+        <v>12014973.470000001</v>
       </c>
       <c r="I17" s="1">
-        <v>1.312282685E7</v>
+        <v>13122826.85</v>
       </c>
       <c r="J17" s="1">
-        <v>285532.5927</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>285532.59269999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B18" s="1">
-        <v>3705175.617</v>
+        <v>3705175.6170000001</v>
       </c>
       <c r="C18" s="1">
-        <v>1.391646794E7</v>
+        <v>13916467.939999999</v>
       </c>
       <c r="D18" s="1">
         <v>8005227.824</v>
       </c>
       <c r="E18" s="1">
-        <v>393560.3528</v>
+        <v>393560.35279999999</v>
       </c>
       <c r="F18" s="1">
-        <v>601766.5241</v>
+        <v>601766.52410000004</v>
       </c>
       <c r="G18" s="1">
-        <v>7511531.542</v>
+        <v>7511531.5420000004</v>
       </c>
       <c r="H18" s="1">
-        <v>9343729.042</v>
+        <v>9343729.0419999994</v>
       </c>
       <c r="I18" s="1">
-        <v>6696552.515</v>
+        <v>6696552.5149999997</v>
       </c>
       <c r="J18" s="1">
-        <v>159349.0071</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>159349.00709999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B19" s="1">
-        <v>2.742665236E7</v>
+        <v>27426652.359999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1.381483899E7</v>
+        <v>13814838.99</v>
       </c>
       <c r="D19" s="1">
-        <v>1.410527484E7</v>
+        <v>14105274.84</v>
       </c>
       <c r="E19" s="1">
-        <v>1.326294664E7</v>
+        <v>13262946.640000001</v>
       </c>
       <c r="F19" s="1">
-        <v>1.881973433E7</v>
+        <v>18819734.329999998</v>
       </c>
       <c r="G19" s="1">
-        <v>2.187058445E7</v>
+        <v>21870584.449999999</v>
       </c>
       <c r="H19" s="1">
-        <v>2.272923398E7</v>
+        <v>22729233.98</v>
       </c>
       <c r="I19" s="1">
-        <v>3.936727639E7</v>
+        <v>39367276.390000001</v>
       </c>
       <c r="J19" s="1">
-        <v>564672.5504</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>564672.55039999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
-        <v>1345890.043</v>
+        <v>1345890.0430000001</v>
       </c>
       <c r="C20" s="1">
-        <v>7574665.35</v>
+        <v>7574665.3499999996</v>
       </c>
       <c r="D20" s="1">
-        <v>737274.6771</v>
+        <v>737274.67709999997</v>
       </c>
       <c r="E20" s="1">
         <v>886188.4682</v>
       </c>
       <c r="F20" s="1">
-        <v>866738.0338</v>
+        <v>866738.03379999998</v>
       </c>
       <c r="G20" s="1">
         <v>1266141.294</v>
       </c>
       <c r="H20" s="1">
-        <v>1117710.357</v>
+        <v>1117710.3570000001</v>
       </c>
       <c r="I20" s="1">
         <v>780704.7733</v>
@@ -988,62 +1039,62 @@
         <v>139796.7892</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>4677274.132</v>
+        <v>4677274.1320000002</v>
       </c>
       <c r="C21" s="1">
-        <v>148692.4924</v>
+        <v>148692.49239999999</v>
       </c>
       <c r="D21" s="1">
-        <v>748879.3005</v>
+        <v>748879.30050000001</v>
       </c>
       <c r="E21" s="1">
-        <v>572429.3179</v>
+        <v>572429.31790000002</v>
       </c>
       <c r="F21" s="1">
-        <v>375113.5228</v>
+        <v>375113.52279999998</v>
       </c>
       <c r="G21" s="1">
-        <v>353317.0354</v>
+        <v>353317.03539999999</v>
       </c>
       <c r="H21" s="1">
         <v>162359.3897</v>
       </c>
       <c r="I21" s="1">
-        <v>427880.1712</v>
+        <v>427880.17119999998</v>
       </c>
       <c r="J21" s="1">
         <v>256721.9155</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="1">
-        <v>460741.3888</v>
+        <v>460741.38880000002</v>
       </c>
       <c r="C22" s="1">
-        <v>1859166.376</v>
+        <v>1859166.3759999999</v>
       </c>
       <c r="D22" s="1">
-        <v>2448071.535</v>
+        <v>2448071.5350000001</v>
       </c>
       <c r="E22" s="1">
         <v>4728888.165</v>
       </c>
       <c r="F22" s="1">
-        <v>6691531.356</v>
+        <v>6691531.3559999997</v>
       </c>
       <c r="G22" s="1">
         <v>6514692.75</v>
       </c>
       <c r="H22" s="1">
-        <v>5582002.661</v>
+        <v>5582002.6610000003</v>
       </c>
       <c r="I22" s="1">
         <v>1182000.142</v>
@@ -1052,67 +1103,67 @@
         <v>11550.00439</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="1">
-        <v>2.238671702E7</v>
+        <v>22386717.02</v>
       </c>
       <c r="C23" s="1">
-        <v>6.623688456E7</v>
+        <v>66236884.560000002</v>
       </c>
       <c r="D23" s="1">
-        <v>3.510225249E7</v>
+        <v>35102252.490000002</v>
       </c>
       <c r="E23" s="1">
-        <v>1.543986304E7</v>
+        <v>15439863.039999999</v>
       </c>
       <c r="F23" s="1">
-        <v>1.817818668E7</v>
+        <v>18178186.68</v>
       </c>
       <c r="G23" s="1">
-        <v>4.836369825E7</v>
+        <v>48363698.25</v>
       </c>
       <c r="H23" s="1">
-        <v>6.435606005E7</v>
+        <v>64356060.049999997</v>
       </c>
       <c r="I23" s="1">
-        <v>5.907671163E7</v>
+        <v>59076711.630000003</v>
       </c>
       <c r="J23" s="1">
-        <v>459991.4589</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>459991.45890000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="1">
-        <v>791958.8643</v>
+        <v>791958.86430000002</v>
       </c>
       <c r="C24" s="1">
-        <v>732515.097</v>
+        <v>732515.09699999995</v>
       </c>
       <c r="J24" s="1">
         <v>203391.8947</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B25" s="1">
-        <v>2.326978902E7</v>
+        <v>23269789.02</v>
       </c>
       <c r="C25" s="1">
-        <v>5880913.786</v>
+        <v>5880913.7860000003</v>
       </c>
       <c r="D25" s="1">
-        <v>818848.1837</v>
+        <v>818848.18370000005</v>
       </c>
       <c r="E25" s="1">
-        <v>380167.7688</v>
+        <v>380167.76880000002</v>
       </c>
       <c r="F25" s="1">
         <v>527431.6433</v>
@@ -1121,48 +1172,220 @@
         <v>1179254.68</v>
       </c>
       <c r="H25" s="1">
-        <v>1405840.911</v>
+        <v>1405840.9110000001</v>
       </c>
       <c r="I25" s="1">
-        <v>3.420160589E7</v>
+        <v>34201605.890000001</v>
       </c>
       <c r="J25" s="1">
-        <v>63089.93317</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>63089.933169999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="1">
-        <v>7.753370587E7</v>
+        <v>77533705.870000005</v>
       </c>
       <c r="C26" s="1">
-        <v>1.72225722E7</v>
+        <v>17222572.199999999</v>
       </c>
       <c r="D26" s="1">
-        <v>4.651047068E7</v>
+        <v>46510470.68</v>
       </c>
       <c r="E26" s="1">
-        <v>1.150248779E8</v>
+        <v>115024877.90000001</v>
       </c>
       <c r="F26" s="1">
-        <v>8.994846764E7</v>
+        <v>89948467.640000001</v>
       </c>
       <c r="G26" s="1">
-        <v>5.381434269E7</v>
+        <v>53814342.689999998</v>
       </c>
       <c r="H26" s="1">
-        <v>4.762069577E7</v>
+        <v>47620695.770000003</v>
       </c>
       <c r="I26" s="1">
-        <v>6.269250394E7</v>
+        <v>62692503.939999998</v>
       </c>
       <c r="J26" s="1">
-        <v>250574.3748</v>
+        <v>250574.37479999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <f>SUM(B2,B3,B10,B15)</f>
+        <v>78055147.131000012</v>
+      </c>
+      <c r="C30">
+        <f>SUM(C2,C3,C10,C15)</f>
+        <v>87712675.95099999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ref="C30:J30" si="0">SUM(D2,D3,D10,D15)</f>
+        <v>33471186.825999998</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>97854762.951000005</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>118508691.72499999</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>36256967.364999995</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>31649647.677999996</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>25620493.917999998</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>4209965.6009999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4698CE-9E7F-4B0C-A066-2C17E3595E4A}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>78055147.131000012</v>
+      </c>
+      <c r="C2">
+        <v>87712675.95099999</v>
+      </c>
+      <c r="D2">
+        <v>33471186.825999998</v>
+      </c>
+      <c r="E2">
+        <v>97854762.951000005</v>
+      </c>
+      <c r="F2">
+        <v>118508691.72499999</v>
+      </c>
+      <c r="G2">
+        <v>36256967.364999995</v>
+      </c>
+      <c r="H2">
+        <v>31649647.677999996</v>
+      </c>
+      <c r="I2">
+        <v>25620493.917999998</v>
+      </c>
+      <c r="J2">
+        <v>4209965.6009999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>